--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/10/seed1/result_data_RandomForest.xlsx
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.43859999999998</v>
+        <v>16.37599999999999</v>
       </c>
     </row>
     <row r="5">
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.69640000000001</v>
+        <v>15.65390000000001</v>
       </c>
     </row>
     <row r="8">
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.2234</v>
+        <v>16.0584</v>
       </c>
     </row>
     <row r="17">
@@ -916,7 +916,7 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.5502</v>
+        <v>16.51029999999999</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.24300000000002</v>
+        <v>17.04380000000002</v>
       </c>
     </row>
     <row r="30">
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.86469999999998</v>
+        <v>16.94979999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>17.1125</v>
+        <v>17.06270000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.07980000000001</v>
+        <v>16.99990000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.7488</v>
+        <v>16.62169999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1562,7 +1562,7 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.02520000000002</v>
+        <v>17.19970000000002</v>
       </c>
     </row>
     <row r="67">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.5055</v>
+        <v>16.3964</v>
       </c>
     </row>
     <row r="101">
